--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_27.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_27.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_0</t>
+          <t>model_1_27_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9985697801829754</v>
+        <v>0.9473195826409679</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8241482915756765</v>
+        <v>0.7179014048694139</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8112477263796249</v>
+        <v>0.7680247280884558</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997689299574463</v>
+        <v>0.9487166798843554</v>
       </c>
       <c r="F2" t="n">
-        <v>0.005953328170704257</v>
+        <v>0.1691192689842666</v>
       </c>
       <c r="G2" t="n">
-        <v>1.175921183956115</v>
+        <v>1.886394604582821</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6751559382544264</v>
+        <v>0.8297620969284996</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0009949521372529606</v>
+        <v>0.1169120625095514</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1678221911735853</v>
+        <v>0.9474483960490641</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0771578134131875</v>
+        <v>0.4112411324080637</v>
       </c>
       <c r="L2" t="n">
-        <v>1.091534068289576</v>
+        <v>0.9282649635962117</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07837297184492865</v>
+        <v>0.4177177691531769</v>
       </c>
       <c r="N2" t="n">
-        <v>140.2476097187704</v>
+        <v>37.55430215867445</v>
       </c>
       <c r="O2" t="n">
-        <v>281.5827822619868</v>
+        <v>74.51888574690028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_5</t>
+          <t>model_1_27_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9991247526420528</v>
+        <v>0.9473048000535425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8236561309776956</v>
+        <v>0.717810591569978</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8141765043764699</v>
+        <v>0.7681361079019279</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9993890631494786</v>
+        <v>0.9493145161212088</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003643240493787316</v>
+        <v>0.169166725335306</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179212264141003</v>
+        <v>1.887001873534307</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6646798691800173</v>
+        <v>0.8293636977938824</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002630600308178723</v>
+        <v>0.1155491580147591</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1290491917544106</v>
+        <v>0.9357658566119502</v>
       </c>
       <c r="K3" t="n">
-        <v>0.06035926187245265</v>
+        <v>0.4112988272962931</v>
       </c>
       <c r="L3" t="n">
-        <v>1.056015830908621</v>
+        <v>0.9282448341154621</v>
       </c>
       <c r="M3" t="n">
-        <v>0.06130985990981807</v>
+        <v>0.4177763726782222</v>
       </c>
       <c r="N3" t="n">
-        <v>141.2297634956421</v>
+        <v>37.55374101984935</v>
       </c>
       <c r="O3" t="n">
-        <v>282.5649360388585</v>
+        <v>74.51832460807518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_6</t>
+          <t>model_1_27_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9991368663851611</v>
+        <v>0.9472849046095232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8236405969204632</v>
+        <v>0.7177173524913465</v>
       </c>
       <c r="D4" t="n">
-        <v>0.814318861548479</v>
+        <v>0.7682353789637</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9993704850018557</v>
+        <v>0.9498902001182022</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003592816714700791</v>
+        <v>0.1692305954243699</v>
       </c>
       <c r="G4" t="n">
-        <v>1.179316140453245</v>
+        <v>1.887625363682442</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6641706658300839</v>
+        <v>0.8290086109619903</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002710594960360165</v>
+        <v>0.1142367546194548</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1276376534501982</v>
+        <v>0.9237631433684415</v>
       </c>
       <c r="K4" t="n">
-        <v>0.059940109398472</v>
+        <v>0.4113764643539661</v>
       </c>
       <c r="L4" t="n">
-        <v>1.055240551349691</v>
+        <v>0.9282177424470103</v>
       </c>
       <c r="M4" t="n">
-        <v>0.06088410620337097</v>
+        <v>0.4178552324419449</v>
       </c>
       <c r="N4" t="n">
-        <v>141.2576375678491</v>
+        <v>37.55298604827122</v>
       </c>
       <c r="O4" t="n">
-        <v>282.5928101110655</v>
+        <v>74.51756963649704</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_4</t>
+          <t>model_1_27_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9991118297769244</v>
+        <v>0.9472602362164326</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8235205866815356</v>
+        <v>0.7176216836752909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8136160438075288</v>
+        <v>0.7683238031896126</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9993943566710706</v>
+        <v>0.9504464870402829</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003697032264884278</v>
+        <v>0.169309788050694</v>
       </c>
       <c r="G5" t="n">
-        <v>1.180118649473549</v>
+        <v>1.88826510149592</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6666846041377485</v>
+        <v>0.8286923226330322</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002607807216684262</v>
+        <v>0.1129685712947231</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1311480226732968</v>
+        <v>0.9112255483566024</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06080322577696251</v>
+        <v>0.4114727063253333</v>
       </c>
       <c r="L5" t="n">
-        <v>1.056842894276841</v>
+        <v>0.928184151443653</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06176081580202288</v>
+        <v>0.4179529901281545</v>
       </c>
       <c r="N5" t="n">
-        <v>141.2004497435011</v>
+        <v>37.55205035336881</v>
       </c>
       <c r="O5" t="n">
-        <v>282.5356222867175</v>
+        <v>74.51663394159463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_3</t>
+          <t>model_1_27_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9990877455667382</v>
+        <v>0.9472299822518273</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8235154567834072</v>
+        <v>0.7175233766549765</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8134069034556347</v>
+        <v>0.7683990776944414</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9994308926402573</v>
+        <v>0.9509777711766252</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003797283432756318</v>
+        <v>0.1694069119656972</v>
       </c>
       <c r="G6" t="n">
-        <v>1.180152953125955</v>
+        <v>1.888922480993424</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6674326870498195</v>
+        <v>0.8284230700939264</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00245048894112068</v>
+        <v>0.1117573875410522</v>
       </c>
       <c r="J6" t="n">
-        <v>0.133598513431701</v>
+        <v>0.8981789767782439</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06162210182033974</v>
+        <v>0.4115907092801018</v>
       </c>
       <c r="L6" t="n">
-        <v>1.058384283728756</v>
+        <v>0.9281429545556797</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06259258832450756</v>
+        <v>0.4180728515115009</v>
       </c>
       <c r="N6" t="n">
-        <v>141.146938708039</v>
+        <v>37.55090338993111</v>
       </c>
       <c r="O6" t="n">
-        <v>282.4821112512554</v>
+        <v>74.51548697815693</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_2</t>
+          <t>model_1_27_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9990751755140609</v>
+        <v>0.9471927677524397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8234940009646219</v>
+        <v>0.7174223333884244</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8132159222540901</v>
+        <v>0.7684563268504589</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9994470809186868</v>
+        <v>0.9514747572302844</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003849606612605963</v>
+        <v>0.1695263811963444</v>
       </c>
       <c r="G7" t="n">
-        <v>1.180296428284967</v>
+        <v>1.889598157782119</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6681158157340181</v>
+        <v>0.828218293182348</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002380784698874811</v>
+        <v>0.1106243941147146</v>
       </c>
       <c r="J7" t="n">
-        <v>0.134756432366952</v>
+        <v>0.8848606856441071</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06204519814301476</v>
+        <v>0.4117358148088947</v>
       </c>
       <c r="L7" t="n">
-        <v>1.059188767100103</v>
+        <v>0.9280922794926838</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06302234799132356</v>
+        <v>0.41822024230732</v>
       </c>
       <c r="N7" t="n">
-        <v>141.1195686288939</v>
+        <v>37.54949344599222</v>
       </c>
       <c r="O7" t="n">
-        <v>282.4547411721103</v>
+        <v>74.51407703421805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_1</t>
+          <t>model_1_27_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9990484242772263</v>
+        <v>0.9471483452727715</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8234801707173544</v>
+        <v>0.7173184478497096</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8128929862334335</v>
+        <v>0.7684951083664957</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9994895070904619</v>
+        <v>0.951936033944101</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00396095935010366</v>
+        <v>0.1696689901137482</v>
       </c>
       <c r="G8" t="n">
-        <v>1.180388911212128</v>
+        <v>1.890292840857855</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6692709391550005</v>
+        <v>0.828079573948166</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002198104115028951</v>
+        <v>0.1095728082993205</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1370175870583411</v>
+        <v>0.8708789753647092</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0629361529655544</v>
+        <v>0.411908958525726</v>
       </c>
       <c r="L8" t="n">
-        <v>1.060900846257518</v>
+        <v>0.9280317893076038</v>
       </c>
       <c r="M8" t="n">
-        <v>0.06392733446169012</v>
+        <v>0.4183961128646111</v>
       </c>
       <c r="N8" t="n">
-        <v>141.0625380458576</v>
+        <v>37.54781171401274</v>
       </c>
       <c r="O8" t="n">
-        <v>282.397710589074</v>
+        <v>74.51239530223856</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_9</t>
+          <t>model_1_27_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9992905959041223</v>
+        <v>0.9470955942619701</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8233015737751299</v>
+        <v>0.717211554005705</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8164730665397877</v>
+        <v>0.7685122169765445</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9991495975840082</v>
+        <v>0.9523542842298549</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00295291348793354</v>
+        <v>0.1698383360079562</v>
       </c>
       <c r="G9" t="n">
-        <v>1.181583189787146</v>
+        <v>1.891007640484914</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6564651994841549</v>
+        <v>0.8280183774420358</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0036617022785165</v>
+        <v>0.1086193110717147</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1232524984420865</v>
+        <v>0.8560695355376571</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05434071666746345</v>
+        <v>0.4121144695445141</v>
       </c>
       <c r="L9" t="n">
-        <v>1.045401862136174</v>
+        <v>0.9279599581439593</v>
       </c>
       <c r="M9" t="n">
-        <v>0.05519652863418825</v>
+        <v>0.4186048604765095</v>
       </c>
       <c r="N9" t="n">
-        <v>141.6499259459617</v>
+        <v>37.54581651808943</v>
       </c>
       <c r="O9" t="n">
-        <v>282.9850984891781</v>
+        <v>74.51040010631525</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_7</t>
+          <t>model_1_27_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9991912498931422</v>
+        <v>0.947032663544192</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8232327892963203</v>
+        <v>0.7171014468061028</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8147968672310901</v>
+        <v>0.7685010262087477</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994214879269143</v>
+        <v>0.9527165896651146</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003366443910861664</v>
+        <v>0.1700403616850641</v>
       </c>
       <c r="G10" t="n">
-        <v>1.18204315191367</v>
+        <v>1.891743927835652</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6624608672197458</v>
+        <v>0.8280584061695669</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002490984193285209</v>
+        <v>0.1077933529317362</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1329020694753013</v>
+        <v>0.8405598595254262</v>
       </c>
       <c r="K10" t="n">
-        <v>0.05802106437201634</v>
+        <v>0.4123595053894891</v>
       </c>
       <c r="L10" t="n">
-        <v>1.051760006838897</v>
+        <v>0.9278742652516657</v>
       </c>
       <c r="M10" t="n">
-        <v>0.05893483813608988</v>
+        <v>0.4188537553910969</v>
       </c>
       <c r="N10" t="n">
-        <v>141.3877966221653</v>
+        <v>37.54343889687019</v>
       </c>
       <c r="O10" t="n">
-        <v>282.7229691653816</v>
+        <v>74.50802248509601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_27_8</t>
+          <t>model_1_27_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9992531394873521</v>
+        <v>0.9469578921503294</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8231929091552965</v>
+        <v>0.716987903535204</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8156279230301204</v>
+        <v>0.7684564714454674</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9992830578140363</v>
+        <v>0.9530115419857319</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003108826822707424</v>
+        <v>0.1702803993329209</v>
       </c>
       <c r="G11" t="n">
-        <v>1.182309830600327</v>
+        <v>1.89250319221097</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6594882288139983</v>
+        <v>0.8282177759743873</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003087043012273524</v>
+        <v>0.107120941627874</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1273260611947044</v>
+        <v>0.842146411260586</v>
       </c>
       <c r="K11" t="n">
-        <v>0.05575685449079264</v>
+        <v>0.4126504566008874</v>
       </c>
       <c r="L11" t="n">
-        <v>1.047799072809468</v>
+        <v>0.927772448885555</v>
       </c>
       <c r="M11" t="n">
-        <v>0.05663496921261641</v>
+        <v>0.4191492887932303</v>
       </c>
       <c r="N11" t="n">
-        <v>141.5470197027688</v>
+        <v>37.54061758574072</v>
       </c>
       <c r="O11" t="n">
-        <v>282.8821922459853</v>
+        <v>74.50520117396654</v>
       </c>
     </row>
   </sheetData>
